--- a/Projects/CCRU_SAND/Data/KPIs_2018/Target Execution 2018.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2018/Target Execution 2018.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$Y$31</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$Y$31</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$Y$31</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Target Execution 2018'!$A$1:$Y$31</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="82">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -247,9 +248,6 @@
     <t xml:space="preserve">SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer: TCCC; Product Category: SSD</t>
-  </si>
-  <si>
     <t xml:space="preserve">SSD</t>
   </si>
   <si>
@@ -262,112 +260,64 @@
     <t xml:space="preserve">Water Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer: TCCC; Product Category: Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water</t>
   </si>
   <si>
     <t xml:space="preserve">Energy Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer: TCCC; Product Category: Energy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Energy</t>
   </si>
   <si>
     <t xml:space="preserve">Tea Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer: TCCC; Product Category: ice tea</t>
-  </si>
-  <si>
     <t xml:space="preserve">ice tea</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Shelf Share</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturer: TCCC; Product Category: Juice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juices</t>
   </si>
   <si>
     <t xml:space="preserve">Menu Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of KPI passed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI: Menu Activation</t>
+    <t xml:space="preserve">Number of KPIs passed in POS</t>
   </si>
   <si>
     <t xml:space="preserve">Transition Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Transition Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Impulse Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Impulse Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Destination Activation</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Destination Activation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eat Out: Informal lunch</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Eat Out: Informal lunch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drink Out: Midday socializing</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Drink Out: Midday socializing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drink Out: Party night</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Drink Out: Party night</t>
-  </si>
-  <si>
     <t xml:space="preserve">On the move</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: On the move</t>
-  </si>
-  <si>
     <t xml:space="preserve">Start the day</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Start the day</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drink Out: Morning coffee</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Drink Out: Morning coffee</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eat Out: Formal lunch</t>
   </si>
   <si>
-    <t xml:space="preserve">KPI: Eat Out: Formal lunch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Drink Out: Evening out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI: Drink Out: Evening out</t>
   </si>
 </sst>
 </file>
@@ -527,37 +477,37 @@
   <dimension ref="1:31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X12" activeCellId="0" sqref="X12"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.95"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0607287449393"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.0566801619433"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="39.6113360323887"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.7368421052632"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.9757085020243"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.587044534413"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.68421052631579"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.2995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.2955465587045"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.1538461538462"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.2672064777328"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="19.914979757085"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.2955465587045"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.00404858299595"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="11.9757085020243"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="8.2995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.5708502024291"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="29.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.35627530364373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="8.03238866396761"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.6842105263158"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="12.2672064777328"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="7.27125506072875"/>
-    <col collapsed="false" hidden="false" max="1019" min="26" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1019" min="26" style="1" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1330,17 +1280,15 @@
       <c r="D15" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1348,7 +1296,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1377,7 +1325,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>57</v>
@@ -1385,17 +1333,15 @@
       <c r="D16" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1403,7 +1349,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -1432,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>57</v>
@@ -1440,17 +1386,15 @@
       <c r="D17" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -1458,7 +1402,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -1487,7 +1431,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>57</v>
@@ -1495,17 +1439,15 @@
       <c r="D18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>69</v>
-      </c>
+      <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1513,7 +1455,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -1542,7 +1484,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>57</v>
@@ -1550,17 +1492,15 @@
       <c r="D19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1568,7 +1508,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -1597,17 +1537,17 @@
         <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>28</v>
@@ -1646,17 +1586,17 @@
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>28</v>
@@ -1695,17 +1635,17 @@
         <v>25</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>28</v>
@@ -1744,17 +1684,17 @@
         <v>25</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>28</v>
@@ -1793,17 +1733,17 @@
         <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>28</v>
@@ -1842,17 +1782,17 @@
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>28</v>
@@ -1891,17 +1831,17 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>28</v>
@@ -1940,17 +1880,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>28</v>
@@ -1989,17 +1929,17 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>28</v>
@@ -2038,17 +1978,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>28</v>
@@ -2087,17 +2027,17 @@
         <v>25</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>28</v>
@@ -2136,17 +2076,17 @@
         <v>25</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>28</v>
